--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8155043333333335</v>
+        <v>1.688184333333333</v>
       </c>
       <c r="H2">
-        <v>2.446513</v>
+        <v>5.064553</v>
       </c>
       <c r="I2">
-        <v>0.06451520947540779</v>
+        <v>0.1174709603088462</v>
       </c>
       <c r="J2">
-        <v>0.06451520947540779</v>
+        <v>0.1174709603088462</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.08013433333333332</v>
+        <v>0.3007906666666667</v>
       </c>
       <c r="N2">
-        <v>0.240403</v>
+        <v>0.902372</v>
       </c>
       <c r="O2">
-        <v>0.008122697422248189</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="P2">
-        <v>0.008122697422248188</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="Q2">
-        <v>0.06534989608211111</v>
+        <v>0.5077900910795555</v>
       </c>
       <c r="R2">
-        <v>0.5881490647390001</v>
+        <v>4.570110819716</v>
       </c>
       <c r="S2">
-        <v>0.0005240375257016968</v>
+        <v>0.004154982898173739</v>
       </c>
       <c r="T2">
-        <v>0.0005240375257016967</v>
+        <v>0.004154982898173739</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8155043333333335</v>
+        <v>1.688184333333333</v>
       </c>
       <c r="H3">
-        <v>2.446513</v>
+        <v>5.064553</v>
       </c>
       <c r="I3">
-        <v>0.06451520947540779</v>
+        <v>0.1174709603088462</v>
       </c>
       <c r="J3">
-        <v>0.06451520947540779</v>
+        <v>0.1174709603088462</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>22.943946</v>
       </c>
       <c r="O3">
-        <v>0.7752263117781462</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="P3">
-        <v>0.775226311778146</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="Q3">
-        <v>6.236962462255335</v>
+        <v>12.91120339401533</v>
       </c>
       <c r="R3">
-        <v>56.13266216029801</v>
+        <v>116.200830546138</v>
       </c>
       <c r="S3">
-        <v>0.05001388789521489</v>
+        <v>0.1056456796605189</v>
       </c>
       <c r="T3">
-        <v>0.05001388789521488</v>
+        <v>0.1056456796605189</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8155043333333335</v>
+        <v>1.688184333333333</v>
       </c>
       <c r="H4">
-        <v>2.446513</v>
+        <v>5.064553</v>
       </c>
       <c r="I4">
-        <v>0.06451520947540779</v>
+        <v>0.1174709603088462</v>
       </c>
       <c r="J4">
-        <v>0.06451520947540779</v>
+        <v>0.1174709603088462</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.004539333333333334</v>
+        <v>0.0008990000000000001</v>
       </c>
       <c r="N4">
-        <v>0.013618</v>
+        <v>0.002697</v>
       </c>
       <c r="O4">
-        <v>0.0004601227667548901</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="P4">
-        <v>0.00046012276675489</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="Q4">
-        <v>0.003701846003777779</v>
+        <v>0.001517677715666667</v>
       </c>
       <c r="R4">
-        <v>0.03331661403400001</v>
+        <v>0.013659099441</v>
       </c>
       <c r="S4">
-        <v>2.968491668159594E-05</v>
+        <v>1.241836944893523E-05</v>
       </c>
       <c r="T4">
-        <v>2.968491668159593E-05</v>
+        <v>1.241836944893523E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8155043333333335</v>
+        <v>1.688184333333333</v>
       </c>
       <c r="H5">
-        <v>2.446513</v>
+        <v>5.064553</v>
       </c>
       <c r="I5">
-        <v>0.06451520947540779</v>
+        <v>0.1174709603088462</v>
       </c>
       <c r="J5">
-        <v>0.06451520947540779</v>
+        <v>0.1174709603088462</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.123561</v>
+        <v>0.5528646666666667</v>
       </c>
       <c r="N5">
-        <v>6.370683000000001</v>
+        <v>1.658594</v>
       </c>
       <c r="O5">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304938</v>
       </c>
       <c r="P5">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304936</v>
       </c>
       <c r="Q5">
-        <v>1.731773197597667</v>
+        <v>0.9333374687202222</v>
       </c>
       <c r="R5">
-        <v>15.585958778379</v>
+        <v>8.400037218482</v>
       </c>
       <c r="S5">
-        <v>0.01388700206049784</v>
+        <v>0.007637016335849933</v>
       </c>
       <c r="T5">
-        <v>0.01388700206049784</v>
+        <v>0.007637016335849932</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8155043333333335</v>
+        <v>1.688184333333333</v>
       </c>
       <c r="H6">
-        <v>2.446513</v>
+        <v>5.064553</v>
       </c>
       <c r="I6">
-        <v>0.06451520947540779</v>
+        <v>0.1174709603088462</v>
       </c>
       <c r="J6">
-        <v>0.06451520947540779</v>
+        <v>0.1174709603088462</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.009266333333333333</v>
+        <v>0.001510333333333333</v>
       </c>
       <c r="N6">
-        <v>0.027799</v>
+        <v>0.004531</v>
       </c>
       <c r="O6">
-        <v>0.0009392680858436767</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="P6">
-        <v>0.0009392680858436766</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="Q6">
-        <v>0.007556734987444446</v>
+        <v>0.002549721071444445</v>
       </c>
       <c r="R6">
-        <v>0.06801061488700001</v>
+        <v>0.022947489643</v>
       </c>
       <c r="S6">
-        <v>6.059707731177011E-05</v>
+        <v>2.086304485469985E-05</v>
       </c>
       <c r="T6">
-        <v>6.05970773117701E-05</v>
+        <v>2.086304485469985E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>3.210599</v>
       </c>
       <c r="I7">
-        <v>0.08466436394433005</v>
+        <v>0.07446899019451893</v>
       </c>
       <c r="J7">
-        <v>0.08466436394433004</v>
+        <v>0.07446899019451893</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.08013433333333332</v>
+        <v>0.3007906666666667</v>
       </c>
       <c r="N7">
-        <v>0.240403</v>
+        <v>0.902372</v>
       </c>
       <c r="O7">
-        <v>0.008122697422248189</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="P7">
-        <v>0.008122697422248188</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="Q7">
-        <v>0.08575973682188888</v>
+        <v>0.3219060712031111</v>
       </c>
       <c r="R7">
-        <v>0.771837631397</v>
+        <v>2.897154640828</v>
       </c>
       <c r="S7">
-        <v>0.0006877030107668923</v>
+        <v>0.00263399039123368</v>
       </c>
       <c r="T7">
-        <v>0.0006877030107668919</v>
+        <v>0.00263399039123368</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3.210599</v>
       </c>
       <c r="I8">
-        <v>0.08466436394433005</v>
+        <v>0.07446899019451893</v>
       </c>
       <c r="J8">
-        <v>0.08466436394433004</v>
+        <v>0.07446899019451893</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,10 +939,10 @@
         <v>22.943946</v>
       </c>
       <c r="O8">
-        <v>0.7752263117781462</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="P8">
-        <v>0.775226311778146</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="Q8">
         <v>8.184867787072667</v>
@@ -951,10 +951,10 @@
         <v>73.663810083654</v>
       </c>
       <c r="S8">
-        <v>0.06563404259960565</v>
+        <v>0.0669725271850018</v>
       </c>
       <c r="T8">
-        <v>0.06563404259960562</v>
+        <v>0.0669725271850018</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3.210599</v>
       </c>
       <c r="I9">
-        <v>0.08466436394433005</v>
+        <v>0.07446899019451893</v>
       </c>
       <c r="J9">
-        <v>0.08466436394433004</v>
+        <v>0.07446899019451893</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.004539333333333334</v>
+        <v>0.0008990000000000001</v>
       </c>
       <c r="N9">
-        <v>0.013618</v>
+        <v>0.002697</v>
       </c>
       <c r="O9">
-        <v>0.0004601227667548901</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="P9">
-        <v>0.00046012276675489</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="Q9">
-        <v>0.004857993020222223</v>
+        <v>0.0009621095003333334</v>
       </c>
       <c r="R9">
-        <v>0.043721937182</v>
+        <v>0.008658985503</v>
       </c>
       <c r="S9">
-        <v>3.89560013836081E-05</v>
+        <v>7.872442944990799E-06</v>
       </c>
       <c r="T9">
-        <v>3.895600138360809E-05</v>
+        <v>7.872442944990799E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3.210599</v>
       </c>
       <c r="I10">
-        <v>0.08466436394433005</v>
+        <v>0.07446899019451893</v>
       </c>
       <c r="J10">
-        <v>0.08466436394433004</v>
+        <v>0.07446899019451893</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.123561</v>
+        <v>0.5528646666666667</v>
       </c>
       <c r="N10">
-        <v>6.370683000000001</v>
+        <v>1.658594</v>
       </c>
       <c r="O10">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304938</v>
       </c>
       <c r="P10">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304936</v>
       </c>
       <c r="Q10">
-        <v>2.272634274346333</v>
+        <v>0.5916755819784445</v>
       </c>
       <c r="R10">
-        <v>20.453708469117</v>
+        <v>5.325080237806</v>
       </c>
       <c r="S10">
-        <v>0.01822413979751275</v>
+        <v>0.004841374354432357</v>
       </c>
       <c r="T10">
-        <v>0.01822413979751275</v>
+        <v>0.004841374354432357</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3.210599</v>
       </c>
       <c r="I11">
-        <v>0.08466436394433005</v>
+        <v>0.07446899019451893</v>
       </c>
       <c r="J11">
-        <v>0.08466436394433004</v>
+        <v>0.07446899019451893</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.009266333333333333</v>
+        <v>0.001510333333333333</v>
       </c>
       <c r="N11">
-        <v>0.027799</v>
+        <v>0.004531</v>
       </c>
       <c r="O11">
-        <v>0.0009392680858436767</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="P11">
-        <v>0.0009392680858436766</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="Q11">
-        <v>0.009916826844555556</v>
+        <v>0.001616358229888889</v>
       </c>
       <c r="R11">
-        <v>0.08925144160100001</v>
+        <v>0.014547224069</v>
       </c>
       <c r="S11">
-        <v>7.952253506116329E-05</v>
+        <v>1.322582090610059E-05</v>
       </c>
       <c r="T11">
-        <v>7.952253506116327E-05</v>
+        <v>1.32258209061006E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.792556333333333</v>
+        <v>2.313935</v>
       </c>
       <c r="H12">
-        <v>5.377668999999999</v>
+        <v>6.941805</v>
       </c>
       <c r="I12">
-        <v>0.1418105859336969</v>
+        <v>0.1610133213388724</v>
       </c>
       <c r="J12">
-        <v>0.1418105859336969</v>
+        <v>0.1610133213388724</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.08013433333333332</v>
+        <v>0.3007906666666667</v>
       </c>
       <c r="N12">
-        <v>0.240403</v>
+        <v>0.902372</v>
       </c>
       <c r="O12">
-        <v>0.008122697422248189</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="P12">
-        <v>0.008122697422248188</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="Q12">
-        <v>0.1436453067341111</v>
+        <v>0.6960100512733333</v>
       </c>
       <c r="R12">
-        <v>1.292807760607</v>
+        <v>6.264090461459999</v>
       </c>
       <c r="S12">
-        <v>0.001151884480811145</v>
+        <v>0.005695089192956802</v>
       </c>
       <c r="T12">
-        <v>0.001151884480811145</v>
+        <v>0.005695089192956802</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.792556333333333</v>
+        <v>2.313935</v>
       </c>
       <c r="H13">
-        <v>5.377668999999999</v>
+        <v>6.941805</v>
       </c>
       <c r="I13">
-        <v>0.1418105859336969</v>
+        <v>0.1610133213388724</v>
       </c>
       <c r="J13">
-        <v>0.1418105859336969</v>
+        <v>0.1610133213388724</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>22.943946</v>
       </c>
       <c r="O13">
-        <v>0.7752263117781462</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="P13">
-        <v>0.775226311778146</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="Q13">
-        <v>13.70943857131933</v>
+        <v>17.69693322917</v>
       </c>
       <c r="R13">
-        <v>123.384947141874</v>
+        <v>159.27239906253</v>
       </c>
       <c r="S13">
-        <v>0.1099352975044777</v>
+        <v>0.1448048242946196</v>
       </c>
       <c r="T13">
-        <v>0.1099352975044777</v>
+        <v>0.1448048242946196</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.792556333333333</v>
+        <v>2.313935</v>
       </c>
       <c r="H14">
-        <v>5.377668999999999</v>
+        <v>6.941805</v>
       </c>
       <c r="I14">
-        <v>0.1418105859336969</v>
+        <v>0.1610133213388724</v>
       </c>
       <c r="J14">
-        <v>0.1418105859336969</v>
+        <v>0.1610133213388724</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.004539333333333334</v>
+        <v>0.0008990000000000001</v>
       </c>
       <c r="N14">
-        <v>0.013618</v>
+        <v>0.002697</v>
       </c>
       <c r="O14">
-        <v>0.0004601227667548901</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="P14">
-        <v>0.00046012276675489</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="Q14">
-        <v>0.008137010715777777</v>
+        <v>0.002080227565</v>
       </c>
       <c r="R14">
-        <v>0.07323309644199999</v>
+        <v>0.018722048085</v>
       </c>
       <c r="S14">
-        <v>6.525027915494471E-05</v>
+        <v>1.702142304216498E-05</v>
       </c>
       <c r="T14">
-        <v>6.52502791549447E-05</v>
+        <v>1.702142304216498E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.792556333333333</v>
+        <v>2.313935</v>
       </c>
       <c r="H15">
-        <v>5.377668999999999</v>
+        <v>6.941805</v>
       </c>
       <c r="I15">
-        <v>0.1418105859336969</v>
+        <v>0.1610133213388724</v>
       </c>
       <c r="J15">
-        <v>0.1418105859336969</v>
+        <v>0.1610133213388724</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.123561</v>
+        <v>0.5528646666666667</v>
       </c>
       <c r="N15">
-        <v>6.370683000000001</v>
+        <v>1.658594</v>
       </c>
       <c r="O15">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304938</v>
       </c>
       <c r="P15">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304936</v>
       </c>
       <c r="Q15">
-        <v>3.806602719769666</v>
+        <v>1.279292902463333</v>
       </c>
       <c r="R15">
-        <v>34.259424477927</v>
+        <v>11.51363612217</v>
       </c>
       <c r="S15">
-        <v>0.03052495551165081</v>
+        <v>0.01046779018509328</v>
       </c>
       <c r="T15">
-        <v>0.0305249555116508</v>
+        <v>0.01046779018509328</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.792556333333333</v>
+        <v>2.313935</v>
       </c>
       <c r="H16">
-        <v>5.377668999999999</v>
+        <v>6.941805</v>
       </c>
       <c r="I16">
-        <v>0.1418105859336969</v>
+        <v>0.1610133213388724</v>
       </c>
       <c r="J16">
-        <v>0.1418105859336969</v>
+        <v>0.1610133213388724</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.009266333333333333</v>
+        <v>0.001510333333333333</v>
       </c>
       <c r="N16">
-        <v>0.027799</v>
+        <v>0.004531</v>
       </c>
       <c r="O16">
-        <v>0.0009392680858436767</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="P16">
-        <v>0.0009392680858436766</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="Q16">
-        <v>0.01661042450344444</v>
+        <v>0.003494813161666666</v>
       </c>
       <c r="R16">
-        <v>0.149493820531</v>
+        <v>0.031453318455</v>
       </c>
       <c r="S16">
-        <v>0.0001331981576023137</v>
+        <v>2.859624316056712E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001331981576023137</v>
+        <v>2.859624316056712E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8420946666666667</v>
+        <v>0.5887196666666666</v>
       </c>
       <c r="H17">
-        <v>2.526284</v>
+        <v>1.766159</v>
       </c>
       <c r="I17">
-        <v>0.06661879231966929</v>
+        <v>0.04096558843161708</v>
       </c>
       <c r="J17">
-        <v>0.06661879231966927</v>
+        <v>0.04096558843161708</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.08013433333333332</v>
+        <v>0.3007906666666667</v>
       </c>
       <c r="N17">
-        <v>0.240403</v>
+        <v>0.902372</v>
       </c>
       <c r="O17">
-        <v>0.008122697422248189</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="P17">
-        <v>0.008122697422248188</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="Q17">
-        <v>0.06748069471688888</v>
+        <v>0.1770813810164444</v>
       </c>
       <c r="R17">
-        <v>0.6073262524519999</v>
+        <v>1.593732429148</v>
       </c>
       <c r="S17">
-        <v>0.0005411242926482652</v>
+        <v>0.001448965079535279</v>
       </c>
       <c r="T17">
-        <v>0.0005411242926482649</v>
+        <v>0.001448965079535279</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8420946666666667</v>
+        <v>0.5887196666666666</v>
       </c>
       <c r="H18">
-        <v>2.526284</v>
+        <v>1.766159</v>
       </c>
       <c r="I18">
-        <v>0.06661879231966929</v>
+        <v>0.04096558843161708</v>
       </c>
       <c r="J18">
-        <v>0.06661879231966927</v>
+        <v>0.04096558843161708</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>22.943946</v>
       </c>
       <c r="O18">
-        <v>0.7752263117781462</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="P18">
-        <v>0.775226311778146</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="Q18">
-        <v>6.440324852962666</v>
+        <v>4.502517413712666</v>
       </c>
       <c r="R18">
-        <v>57.962923676664</v>
+        <v>40.522656723414</v>
       </c>
       <c r="S18">
-        <v>0.05164464066509151</v>
+        <v>0.03684176430645359</v>
       </c>
       <c r="T18">
-        <v>0.05164464066509149</v>
+        <v>0.03684176430645359</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8420946666666667</v>
+        <v>0.5887196666666666</v>
       </c>
       <c r="H19">
-        <v>2.526284</v>
+        <v>1.766159</v>
       </c>
       <c r="I19">
-        <v>0.06661879231966929</v>
+        <v>0.04096558843161708</v>
       </c>
       <c r="J19">
-        <v>0.06661879231966927</v>
+        <v>0.04096558843161708</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.004539333333333334</v>
+        <v>0.0008990000000000001</v>
       </c>
       <c r="N19">
-        <v>0.013618</v>
+        <v>0.002697</v>
       </c>
       <c r="O19">
-        <v>0.0004601227667548901</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="P19">
-        <v>0.00046012276675489</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="Q19">
-        <v>0.003822548390222222</v>
+        <v>0.0005292589803333334</v>
       </c>
       <c r="R19">
-        <v>0.034402935512</v>
+        <v>0.004763330823</v>
       </c>
       <c r="S19">
-        <v>3.065282303999566E-05</v>
+        <v>4.330651681907957E-06</v>
       </c>
       <c r="T19">
-        <v>3.065282303999564E-05</v>
+        <v>4.330651681907957E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8420946666666667</v>
+        <v>0.5887196666666666</v>
       </c>
       <c r="H20">
-        <v>2.526284</v>
+        <v>1.766159</v>
       </c>
       <c r="I20">
-        <v>0.06661879231966929</v>
+        <v>0.04096558843161708</v>
       </c>
       <c r="J20">
-        <v>0.06661879231966927</v>
+        <v>0.04096558843161708</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.123561</v>
+        <v>0.5528646666666667</v>
       </c>
       <c r="N20">
-        <v>6.370683000000001</v>
+        <v>1.658594</v>
       </c>
       <c r="O20">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304938</v>
       </c>
       <c r="P20">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304936</v>
       </c>
       <c r="Q20">
-        <v>1.788239392441333</v>
+        <v>0.3254823022717778</v>
       </c>
       <c r="R20">
-        <v>16.094154531972</v>
+        <v>2.929340720446</v>
       </c>
       <c r="S20">
-        <v>0.01433980163334621</v>
+        <v>0.002663252834891526</v>
       </c>
       <c r="T20">
-        <v>0.0143398016333462</v>
+        <v>0.002663252834891525</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8420946666666667</v>
+        <v>0.5887196666666666</v>
       </c>
       <c r="H21">
-        <v>2.526284</v>
+        <v>1.766159</v>
       </c>
       <c r="I21">
-        <v>0.06661879231966929</v>
+        <v>0.04096558843161708</v>
       </c>
       <c r="J21">
-        <v>0.06661879231966927</v>
+        <v>0.04096558843161708</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.009266333333333333</v>
+        <v>0.001510333333333333</v>
       </c>
       <c r="N21">
-        <v>0.027799</v>
+        <v>0.004531</v>
       </c>
       <c r="O21">
-        <v>0.0009392680858436767</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="P21">
-        <v>0.0009392680858436766</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="Q21">
-        <v>0.007803129879555555</v>
+        <v>0.0008891629365555555</v>
       </c>
       <c r="R21">
-        <v>0.07022816891600001</v>
+        <v>0.008002466429</v>
       </c>
       <c r="S21">
-        <v>6.257290554331321E-05</v>
+        <v>7.275559054773805E-06</v>
       </c>
       <c r="T21">
-        <v>6.257290554331318E-05</v>
+        <v>7.275559054773805E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.337404666666667</v>
+        <v>7.350912666666666</v>
       </c>
       <c r="H22">
-        <v>19.012214</v>
+        <v>22.052738</v>
       </c>
       <c r="I22">
-        <v>0.5013572250796462</v>
+        <v>0.5115073946899924</v>
       </c>
       <c r="J22">
-        <v>0.5013572250796461</v>
+        <v>0.5115073946899924</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.08013433333333332</v>
+        <v>0.3007906666666667</v>
       </c>
       <c r="N22">
-        <v>0.240403</v>
+        <v>0.902372</v>
       </c>
       <c r="O22">
-        <v>0.008122697422248189</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="P22">
-        <v>0.008122697422248188</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="Q22">
-        <v>0.5078436980268889</v>
+        <v>2.211085921615111</v>
       </c>
       <c r="R22">
-        <v>4.570593282241999</v>
+        <v>19.899773294536</v>
       </c>
       <c r="S22">
-        <v>0.004072373039779947</v>
+        <v>0.01809216909131095</v>
       </c>
       <c r="T22">
-        <v>0.004072373039779946</v>
+        <v>0.01809216909131095</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.337404666666667</v>
+        <v>7.350912666666666</v>
       </c>
       <c r="H23">
-        <v>19.012214</v>
+        <v>22.052738</v>
       </c>
       <c r="I23">
-        <v>0.5013572250796462</v>
+        <v>0.5115073946899924</v>
       </c>
       <c r="J23">
-        <v>0.5013572250796461</v>
+        <v>0.5115073946899924</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>22.943946</v>
       </c>
       <c r="O23">
-        <v>0.7752263117781462</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="P23">
-        <v>0.775226311778146</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="Q23">
-        <v>48.46835681738267</v>
+        <v>56.21964775823866</v>
       </c>
       <c r="R23">
-        <v>436.215211356444</v>
+        <v>505.976829824148</v>
       </c>
       <c r="S23">
-        <v>0.38866531248182</v>
+        <v>0.4600162135504067</v>
       </c>
       <c r="T23">
-        <v>0.3886653124818198</v>
+        <v>0.4600162135504067</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.337404666666667</v>
+        <v>7.350912666666666</v>
       </c>
       <c r="H24">
-        <v>19.012214</v>
+        <v>22.052738</v>
       </c>
       <c r="I24">
-        <v>0.5013572250796462</v>
+        <v>0.5115073946899924</v>
       </c>
       <c r="J24">
-        <v>0.5013572250796461</v>
+        <v>0.5115073946899924</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,28 +1925,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.004539333333333334</v>
+        <v>0.0008990000000000001</v>
       </c>
       <c r="N24">
-        <v>0.013618</v>
+        <v>0.002697</v>
       </c>
       <c r="O24">
-        <v>0.0004601227667548901</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="P24">
-        <v>0.00046012276675489</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="Q24">
-        <v>0.02876759225022223</v>
+        <v>0.006608470487333333</v>
       </c>
       <c r="R24">
-        <v>0.258908330252</v>
+        <v>0.059476234386</v>
       </c>
       <c r="S24">
-        <v>0.000230685873536201</v>
+        <v>5.407368584050219E-05</v>
       </c>
       <c r="T24">
-        <v>0.0002306858735362009</v>
+        <v>5.407368584050219E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.337404666666667</v>
+        <v>7.350912666666666</v>
       </c>
       <c r="H25">
-        <v>19.012214</v>
+        <v>22.052738</v>
       </c>
       <c r="I25">
-        <v>0.5013572250796462</v>
+        <v>0.5115073946899924</v>
       </c>
       <c r="J25">
-        <v>0.5013572250796461</v>
+        <v>0.5115073946899924</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.123561</v>
+        <v>0.5528646666666667</v>
       </c>
       <c r="N25">
-        <v>6.370683000000001</v>
+        <v>1.658594</v>
       </c>
       <c r="O25">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304938</v>
       </c>
       <c r="P25">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304936</v>
       </c>
       <c r="Q25">
-        <v>13.45786539135133</v>
+        <v>4.064059881152444</v>
       </c>
       <c r="R25">
-        <v>121.120788522162</v>
+        <v>36.576538930372</v>
       </c>
       <c r="S25">
-        <v>0.1079179448433856</v>
+        <v>0.03325409376823948</v>
       </c>
       <c r="T25">
-        <v>0.1079179448433856</v>
+        <v>0.03325409376823948</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.337404666666667</v>
+        <v>7.350912666666666</v>
       </c>
       <c r="H26">
-        <v>19.012214</v>
+        <v>22.052738</v>
       </c>
       <c r="I26">
-        <v>0.5013572250796462</v>
+        <v>0.5115073946899924</v>
       </c>
       <c r="J26">
-        <v>0.5013572250796461</v>
+        <v>0.5115073946899924</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2049,28 +2049,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.009266333333333333</v>
+        <v>0.001510333333333333</v>
       </c>
       <c r="N26">
-        <v>0.027799</v>
+        <v>0.004531</v>
       </c>
       <c r="O26">
-        <v>0.0009392680858436767</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="P26">
-        <v>0.0009392680858436766</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="Q26">
-        <v>0.05872450410955556</v>
+        <v>0.01110232843088889</v>
       </c>
       <c r="R26">
-        <v>0.528520536986</v>
+        <v>0.099920955878</v>
       </c>
       <c r="S26">
-        <v>0.0004709088411244567</v>
+        <v>9.084459419477768E-05</v>
       </c>
       <c r="T26">
-        <v>0.0004709088411244565</v>
+        <v>9.084459419477769E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.782737666666667</v>
+        <v>1.359126666666667</v>
       </c>
       <c r="H27">
-        <v>5.348212999999999</v>
+        <v>4.07738</v>
       </c>
       <c r="I27">
-        <v>0.1410338232472499</v>
+        <v>0.09457374503615294</v>
       </c>
       <c r="J27">
-        <v>0.1410338232472499</v>
+        <v>0.09457374503615293</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.08013433333333332</v>
+        <v>0.3007906666666667</v>
       </c>
       <c r="N27">
-        <v>0.240403</v>
+        <v>0.902372</v>
       </c>
       <c r="O27">
-        <v>0.008122697422248189</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="P27">
-        <v>0.008122697422248188</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="Q27">
-        <v>0.1428584944265555</v>
+        <v>0.4088126161511111</v>
       </c>
       <c r="R27">
-        <v>1.285726449839</v>
+        <v>3.679313545359999</v>
       </c>
       <c r="S27">
-        <v>0.001145575072540243</v>
+        <v>0.003345101565598315</v>
       </c>
       <c r="T27">
-        <v>0.001145575072540243</v>
+        <v>0.003345101565598314</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.782737666666667</v>
+        <v>1.359126666666667</v>
       </c>
       <c r="H28">
-        <v>5.348212999999999</v>
+        <v>4.07738</v>
       </c>
       <c r="I28">
-        <v>0.1410338232472499</v>
+        <v>0.09457374503615294</v>
       </c>
       <c r="J28">
-        <v>0.1410338232472499</v>
+        <v>0.09457374503615293</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2179,22 +2179,22 @@
         <v>22.943946</v>
       </c>
       <c r="O28">
-        <v>0.7752263117781462</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="P28">
-        <v>0.775226311778146</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="Q28">
-        <v>13.63434558538867</v>
+        <v>10.39457628238667</v>
       </c>
       <c r="R28">
-        <v>122.709110268498</v>
+        <v>93.55118654147999</v>
       </c>
       <c r="S28">
-        <v>0.1093331306319365</v>
+        <v>0.08505342551143343</v>
       </c>
       <c r="T28">
-        <v>0.1093331306319365</v>
+        <v>0.08505342551143341</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.782737666666667</v>
+        <v>1.359126666666667</v>
       </c>
       <c r="H29">
-        <v>5.348212999999999</v>
+        <v>4.07738</v>
       </c>
       <c r="I29">
-        <v>0.1410338232472499</v>
+        <v>0.09457374503615294</v>
       </c>
       <c r="J29">
-        <v>0.1410338232472499</v>
+        <v>0.09457374503615293</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2235,28 +2235,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>0.004539333333333334</v>
+        <v>0.0008990000000000001</v>
       </c>
       <c r="N29">
-        <v>0.013618</v>
+        <v>0.002697</v>
       </c>
       <c r="O29">
-        <v>0.0004601227667548901</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="P29">
-        <v>0.00046012276675489</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="Q29">
-        <v>0.00809244051488889</v>
+        <v>0.001221854873333333</v>
       </c>
       <c r="R29">
-        <v>0.07283196463399999</v>
+        <v>0.01099669386</v>
       </c>
       <c r="S29">
-        <v>6.489287295854475E-05</v>
+        <v>9.99780458881554E-06</v>
       </c>
       <c r="T29">
-        <v>6.489287295854474E-05</v>
+        <v>9.997804588815538E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.782737666666667</v>
+        <v>1.359126666666667</v>
       </c>
       <c r="H30">
-        <v>5.348212999999999</v>
+        <v>4.07738</v>
       </c>
       <c r="I30">
-        <v>0.1410338232472499</v>
+        <v>0.09457374503615294</v>
       </c>
       <c r="J30">
-        <v>0.1410338232472499</v>
+        <v>0.09457374503615293</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.123561</v>
+        <v>0.5528646666666667</v>
       </c>
       <c r="N30">
-        <v>6.370683000000001</v>
+        <v>1.658594</v>
       </c>
       <c r="O30">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304938</v>
       </c>
       <c r="P30">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304936</v>
       </c>
       <c r="Q30">
-        <v>3.785752182164333</v>
+        <v>0.7514131115244445</v>
       </c>
       <c r="R30">
-        <v>34.071769639479</v>
+        <v>6.762718003719999</v>
       </c>
       <c r="S30">
-        <v>0.03035775610061395</v>
+        <v>0.006148423694542796</v>
       </c>
       <c r="T30">
-        <v>0.03035775610061394</v>
+        <v>0.006148423694542794</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.782737666666667</v>
+        <v>1.359126666666667</v>
       </c>
       <c r="H31">
-        <v>5.348212999999999</v>
+        <v>4.07738</v>
       </c>
       <c r="I31">
-        <v>0.1410338232472499</v>
+        <v>0.09457374503615294</v>
       </c>
       <c r="J31">
-        <v>0.1410338232472499</v>
+        <v>0.09457374503615293</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,28 +2359,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.009266333333333333</v>
+        <v>0.001510333333333333</v>
       </c>
       <c r="N31">
-        <v>0.027799</v>
+        <v>0.004531</v>
       </c>
       <c r="O31">
-        <v>0.0009392680858436767</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="P31">
-        <v>0.0009392680858436766</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="Q31">
-        <v>0.01651944146522222</v>
+        <v>0.002052734308888889</v>
       </c>
       <c r="R31">
-        <v>0.148674973187</v>
+        <v>0.01847460878</v>
       </c>
       <c r="S31">
-        <v>0.0001324685692006598</v>
+        <v>1.679645998958962E-05</v>
       </c>
       <c r="T31">
-        <v>0.0001324685692006598</v>
+        <v>1.679645998958962E-05</v>
       </c>
     </row>
   </sheetData>
